--- a/Lecture_4/Assigment_4/output/sbs/group4/table_falabella.xlsx
+++ b/Lecture_4/Assigment_4/output/sbs/group4/table_falabella.xlsx
@@ -434,7 +434,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -446,12 +446,12 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>78.44</v>
+        <v>79.81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -463,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>78.89</v>
+        <v>79.16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -485,7 +485,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -497,12 +497,12 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>79.16</v>
+        <v>78.89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>79.81</v>
+        <v>78.44</v>
       </c>
     </row>
   </sheetData>
